--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA0294-ACE9-334C-8553-56AF47E877EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B47E5-4254-D849-8E79-7852164CB10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,22 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>506.5</v>
+        <v>546.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>306.5</v>
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B47E5-4254-D849-8E79-7852164CB10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE46D5-982A-3145-B727-34FED3C65AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>470</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>546.5</v>
+        <v>626.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>346.5</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -632,6 +632,14 @@
       </c>
       <c r="B10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE46D5-982A-3145-B727-34FED3C65AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781C4C5-3ECC-124C-A7D0-4013EF554B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>550</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>626.5</v>
+        <v>656.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>426.5</v>
+        <v>456.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -643,6 +643,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781C4C5-3ECC-124C-A7D0-4013EF554B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CFFE14-25EA-6142-AA9B-33F5C621135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>29</v>
+        <v>35.5</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>580</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>656.5</v>
+        <v>786.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>456.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -647,13 +647,19 @@
         <v>43925</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="L13" s="3">
         <v>43914</v>
       </c>
@@ -662,11 +668,25 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
       <c r="L14" s="3">
         <v>43915</v>
       </c>
       <c r="M14" s="5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>43925</v>
+      </c>
+      <c r="M15" s="5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CFFE14-25EA-6142-AA9B-33F5C621135F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23006A64-F88D-0348-A611-6BF36BB3767D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>710</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>786.5</v>
+        <v>816.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>86.5</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -682,11 +682,25 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="L15" s="3">
         <v>43925</v>
       </c>
       <c r="M15" s="5">
         <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23006A64-F88D-0348-A611-6BF36BB3767D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B018CA7C-23AC-AA47-A86D-5AA567FBB874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>740</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>816.5</v>
+        <v>856.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>116.5</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>43929</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B018CA7C-23AC-AA47-A86D-5AA567FBB874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAC40C-FE32-5E4C-9324-8FC0C3E361D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
+    <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>780</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>856.5</v>
+        <v>976.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>156.5</v>
+        <v>276.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -701,6 +701,22 @@
       </c>
       <c r="B16">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAC40C-FE32-5E4C-9324-8FC0C3E361D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627EE54D-C509-0C45-830F-BE25B4F32C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>900</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>976.5</v>
+        <v>1056.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>276.5</v>
+        <v>356.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -717,6 +717,14 @@
       </c>
       <c r="B18">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627EE54D-C509-0C45-830F-BE25B4F32C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BAE17-7E8E-6849-A5E7-60E51B7DEF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>980</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1056.5</v>
+        <v>1116.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>356.5</v>
+        <v>416.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -725,6 +725,14 @@
       </c>
       <c r="B19">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BAE17-7E8E-6849-A5E7-60E51B7DEF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B00473-FB65-3A49-82F7-28A25C9B0301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>1040</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1116.5</v>
+        <v>1156.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>416.5</v>
+        <v>456.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>43934</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B00473-FB65-3A49-82F7-28A25C9B0301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEC97F-0FB4-9B45-ADB9-449B085EEB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>1080</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1156.5</v>
+        <v>1276.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>456.5</v>
+        <v>576.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -733,6 +733,30 @@
       </c>
       <c r="B20">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEC97F-0FB4-9B45-ADB9-449B085EEB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E773BE2-75A8-D840-8E60-F0CF94A941BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="6560" windowWidth="28040" windowHeight="17440" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
+    <workbookView xWindow="-21920" yWindow="6460" windowWidth="21920" windowHeight="15040" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,9 +484,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B24)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>1200</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1276.5</v>
+        <v>1296.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>576.5</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -757,6 +757,14 @@
       </c>
       <c r="B23">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E773BE2-75A8-D840-8E60-F0CF94A941BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325C965-C40F-FD49-8CC8-9E6AB206B6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21920" yWindow="6460" windowWidth="21920" windowHeight="15040" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
+    <workbookView xWindow="26840" yWindow="10100" windowWidth="21920" windowHeight="15040" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,8 +537,8 @@
       </c>
       <c r="F4" s="6"/>
       <c r="L4">
-        <f>SUM(B3:B24)</f>
-        <v>61</v>
+        <f>SUM(B3:B38)</f>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>1220</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1296.5</v>
+        <v>1316.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>596.5</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -765,6 +765,22 @@
       </c>
       <c r="B24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascaljardin/Documents/GitHub/Lady-Justice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325C965-C40F-FD49-8CC8-9E6AB206B6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290071AF-2BA5-354F-9D0A-F8B6684A96A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26840" yWindow="10100" windowWidth="21920" windowHeight="15040" xr2:uid="{55078296-9595-B04F-89F8-C73D7D3F7192}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB61B247-2104-BC45-AE50-878C86EE91AF}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="6"/>
       <c r="L4">
         <f>SUM(B3:B38)</f>
-        <v>62</v>
+        <v>62.5</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
       </c>
       <c r="P4" s="5">
         <f>L4*N4</f>
-        <v>1240</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -616,14 +616,14 @@
       </c>
       <c r="M9" s="4">
         <f>SUM(H5:H7) + P4</f>
-        <v>1316.5</v>
+        <v>1326.5</v>
       </c>
       <c r="O9" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="4">
         <f>M9-SUM(M13:M21)</f>
-        <v>616.5</v>
+        <v>626.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -780,6 +780,14 @@
         <v>43942</v>
       </c>
       <c r="B26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B27">
         <v>0.5</v>
       </c>
     </row>
